--- a/biology/Médecine/Raymond_Havard/Raymond_Havard.xlsx
+++ b/biology/Médecine/Raymond_Havard/Raymond_Havard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Havard est le premier français à avoir été opéré à cœur ouvert. Cet exploit, réalisé à Stockholm le 21 janvier 1948 par le professeur Clarence Crafoord, a créé à l'époque un véritable engouement autour de Raymond Havard, alors âgé de 25 ans.
 </t>
@@ -511,7 +523,9 @@
           <t>Eléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1944, Raymond Havard prend le parti et le risque du maquis, se croyant encore doté d'une santé d'un homme de son âge. Soldat le 8 mai 1945, il fait cinq mois de service au bataillon de l'air 110.
 C'est peu après que sa maladie va lui être découverte. Après de nombreux malaises et une commission de réforme qui le soustrait à tout service, les médecins français lui annoncent une grave maladie du cœur et le condamnent à une mort prématurée. Rétrécissement de l'isthme aortique par malformation congénitale.
@@ -544,7 +558,9 @@
           <t>Engouement autour de Raymond Havard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il choisit donc de s'adresser au quotidien Paris-presse pour financer l'opération et là commence un engouement en France et en Suède pour l'histoire de ce jeune homme, relayée régulièrement par le quotidien.
 Mais c'est le docteur Gottland qui va lancer une véritable chaîne de solidarité. Le professeur Crafoord accepte d'opérer gratuitement le jeune Français, la Suède paye les frais d'hospitalisation et les Pays-Bas offrent le voyage.
@@ -577,11 +593,13 @@
           <t>Opération</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'opération va se dérouler le 21 janvier 1948 sous le contrôle du professeur Craaford et sous l’œil attentif de 32 chirurgiens[1] de 8 nations. Le chirurgien découpe la cage thoracique, découvre l'aorte, isole puis enlève la partie malade. Il suture ensuite les extrémités de l'aorte avec un fil fin comme un cheveu. L'opération dure 8 heures.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'opération va se dérouler le 21 janvier 1948 sous le contrôle du professeur Craaford et sous l’œil attentif de 32 chirurgiens de 8 nations. Le chirurgien découpe la cage thoracique, découvre l'aorte, isole puis enlève la partie malade. Il suture ensuite les extrémités de l'aorte avec un fil fin comme un cheveu. L'opération dure 8 heures.
 Le professeur Craaford avait déjà exercé plusieurs opérations de ce type, mais jamais dans des conditions aussi périlleuses.
-Raymond Havard meurt le 11 octobre 1979[2], après un sursis de 31 ans[3], alors que les médecins français ne lui avaient prédit que quelques mois.
+Raymond Havard meurt le 11 octobre 1979, après un sursis de 31 ans, alors que les médecins français ne lui avaient prédit que quelques mois.
 </t>
         </is>
       </c>
